--- a/natmiOut/OldD0/LR-pairs_lrc2p/Gnas-Lhcgr.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Gnas-Lhcgr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,60 +525,60 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>74.37523510349889</v>
+        <v>84.76851766666665</v>
       </c>
       <c r="H2">
-        <v>74.37523510349889</v>
+        <v>254.305553</v>
       </c>
       <c r="I2">
-        <v>0.2335289864007734</v>
+        <v>0.2571740874301185</v>
       </c>
       <c r="J2">
-        <v>0.2335289864007734</v>
+        <v>0.2571740874301185</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>3.43600684236025</v>
+        <v>0.06641766666666667</v>
       </c>
       <c r="N2">
-        <v>3.43600684236025</v>
+        <v>0.199253</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.01713876626480986</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.01713876626480986</v>
       </c>
       <c r="Q2">
-        <v>255.5538167177745</v>
+        <v>5.63012715021211</v>
       </c>
       <c r="R2">
-        <v>255.5538167177745</v>
+        <v>50.671144351909</v>
       </c>
       <c r="S2">
-        <v>0.2335289864007734</v>
+        <v>0.004407646573830577</v>
       </c>
       <c r="T2">
-        <v>0.2335289864007734</v>
+        <v>0.004407646573830579</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -590,57 +590,57 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>133.214133982591</v>
+        <v>84.76851766666665</v>
       </c>
       <c r="H3">
-        <v>133.214133982591</v>
+        <v>254.305553</v>
       </c>
       <c r="I3">
-        <v>0.4182758096820832</v>
+        <v>0.2571740874301185</v>
       </c>
       <c r="J3">
-        <v>0.4182758096820832</v>
+        <v>0.2571740874301185</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.43600684236025</v>
+        <v>3.808871</v>
       </c>
       <c r="N3">
-        <v>3.43600684236025</v>
+        <v>11.426613</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9828612337351901</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9828612337351901</v>
       </c>
       <c r="Q3">
-        <v>457.7246758632778</v>
+        <v>322.8723486535543</v>
       </c>
       <c r="R3">
-        <v>457.7246758632778</v>
+        <v>2905.851137881989</v>
       </c>
       <c r="S3">
-        <v>0.4182758096820832</v>
+        <v>0.2527664408562879</v>
       </c>
       <c r="T3">
-        <v>0.4182758096820832</v>
+        <v>0.252766440856288</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,241 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>133.6830266666667</v>
+      </c>
+      <c r="H4">
+        <v>401.04908</v>
+      </c>
+      <c r="I4">
+        <v>0.4055728628296552</v>
+      </c>
+      <c r="J4">
+        <v>0.4055728628296552</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.06641766666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.199253</v>
+      </c>
+      <c r="O4">
+        <v>0.01713876626480986</v>
+      </c>
+      <c r="P4">
+        <v>0.01713876626480986</v>
+      </c>
+      <c r="Q4">
+        <v>8.878914704137779</v>
+      </c>
+      <c r="R4">
+        <v>79.91023233724</v>
+      </c>
+      <c r="S4">
+        <v>0.006951018499387253</v>
+      </c>
+      <c r="T4">
+        <v>0.006951018499387254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>110.894585517554</v>
-      </c>
-      <c r="H4">
-        <v>110.894585517554</v>
-      </c>
-      <c r="I4">
-        <v>0.3481952039171433</v>
-      </c>
-      <c r="J4">
-        <v>0.3481952039171433</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>3.43600684236025</v>
-      </c>
-      <c r="N4">
-        <v>3.43600684236025</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>381.0345546190194</v>
-      </c>
-      <c r="R4">
-        <v>381.0345546190194</v>
-      </c>
-      <c r="S4">
-        <v>0.3481952039171433</v>
-      </c>
-      <c r="T4">
-        <v>0.3481952039171433</v>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>133.6830266666667</v>
+      </c>
+      <c r="H5">
+        <v>401.04908</v>
+      </c>
+      <c r="I5">
+        <v>0.4055728628296552</v>
+      </c>
+      <c r="J5">
+        <v>0.4055728628296552</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>3.808871</v>
+      </c>
+      <c r="N5">
+        <v>11.426613</v>
+      </c>
+      <c r="O5">
+        <v>0.9828612337351901</v>
+      </c>
+      <c r="P5">
+        <v>0.9828612337351901</v>
+      </c>
+      <c r="Q5">
+        <v>509.1814034628933</v>
+      </c>
+      <c r="R5">
+        <v>4582.63263116604</v>
+      </c>
+      <c r="S5">
+        <v>0.3986218443302679</v>
+      </c>
+      <c r="T5">
+        <v>0.3986218443302679</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>111.16377</v>
+      </c>
+      <c r="H6">
+        <v>333.49131</v>
+      </c>
+      <c r="I6">
+        <v>0.3372530497402263</v>
+      </c>
+      <c r="J6">
+        <v>0.3372530497402264</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.06641766666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.199253</v>
+      </c>
+      <c r="O6">
+        <v>0.01713876626480986</v>
+      </c>
+      <c r="P6">
+        <v>0.01713876626480986</v>
+      </c>
+      <c r="Q6">
+        <v>7.38323822127</v>
+      </c>
+      <c r="R6">
+        <v>66.44914399143001</v>
+      </c>
+      <c r="S6">
+        <v>0.005780101191592034</v>
+      </c>
+      <c r="T6">
+        <v>0.005780101191592035</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>111.16377</v>
+      </c>
+      <c r="H7">
+        <v>333.49131</v>
+      </c>
+      <c r="I7">
+        <v>0.3372530497402263</v>
+      </c>
+      <c r="J7">
+        <v>0.3372530497402264</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.808871</v>
+      </c>
+      <c r="N7">
+        <v>11.426613</v>
+      </c>
+      <c r="O7">
+        <v>0.9828612337351901</v>
+      </c>
+      <c r="P7">
+        <v>0.9828612337351901</v>
+      </c>
+      <c r="Q7">
+        <v>423.40845980367</v>
+      </c>
+      <c r="R7">
+        <v>3810.67613823303</v>
+      </c>
+      <c r="S7">
+        <v>0.3314729485486342</v>
+      </c>
+      <c r="T7">
+        <v>0.3314729485486343</v>
       </c>
     </row>
   </sheetData>
